--- a/data/trans_dic/CONS_REC-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 5,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 8,59</t>
+          <t>0,37; 3,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 5,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 16,41</t>
+          <t>1,82; 6,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 4,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,1; 11,13</t>
+          <t>1,33; 4,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,12 +743,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,32 +758,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 4,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 3,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,32</t>
+          <t>0,67; 4,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,74; 10,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 7,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>4,3; 10,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,95; 6,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 4,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,62</t>
+          <t>3,16; 7,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,4%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,42</t>
+          <t>0,93; 3,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 4,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,19</t>
+          <t>0,92; 4,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,29</t>
+          <t>4,76; 9,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 4,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,55</t>
+          <t>3,41; 8,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,32; 42,21</t>
+          <t>3,4; 5,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,23; 3,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,9</t>
+          <t>2,48; 5,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,26</t>
+          <t>1,7; 4,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,72</t>
+          <t>0,17; 2,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,7</t>
+          <t>0,7; 3,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,54</t>
+          <t>5,9; 10,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 6,65</t>
+          <t>3,5; 6,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,94</t>
+          <t>3,48; 7,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,49</t>
+          <t>4,13; 6,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,45</t>
+          <t>1,05; 3,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,42</t>
+          <t>2,33; 4,48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,17</t>
+          <t>2,35; 5,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,16</t>
+          <t>2,09; 6,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,34</t>
+          <t>0,85; 3,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 10,99</t>
+          <t>5,17; 9,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,85</t>
+          <t>5,87; 10,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,55; 9,94</t>
+          <t>5,09; 10,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,82</t>
+          <t>4,25; 6,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,03</t>
+          <t>4,23; 7,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,2</t>
+          <t>3,33; 6,3</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>6,05%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,89</t>
+          <t>3,94; 7,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,53</t>
+          <t>1,41; 5,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,34</t>
+          <t>1,98; 4,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,25</t>
+          <t>8,16; 13,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,81</t>
+          <t>1,02; 7,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,47; 8,1</t>
+          <t>6,66; 11,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,22</t>
+          <t>6,7; 10,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,75</t>
+          <t>1,29; 5,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,12</t>
+          <t>4,67; 7,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,97</t>
+          <t>9,24; 15,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,57</t>
+          <t>0,42; 3,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,55</t>
+          <t>5,65; 10,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,67; 7,85</t>
+          <t>14,21; 19,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,49</t>
+          <t>8,89; 15,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,39; 9,07</t>
+          <t>8,16; 13,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,72</t>
+          <t>13,1; 17,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,56</t>
+          <t>5,86; 10,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 5,71</t>
+          <t>7,68; 11,55</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,96</t>
+          <t>3,8; 5,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,49</t>
+          <t>1,12; 2,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,73</t>
+          <t>2,05; 3,3</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,6</t>
+          <t>8,23; 9,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,61</t>
+          <t>3,5; 5,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,54</t>
+          <t>5,84; 7,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,83</t>
+          <t>6,24; 7,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,42</t>
+          <t>2,63; 4,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,58</t>
+          <t>4,25; 5,47</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>4,52%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>9,14%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>9,87%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>6,01%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>4,4%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>7,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 5,23</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 5,1</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 6,72</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 11,87</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 7,33</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>7,68; 12,24</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 7,46</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>2,87; 5,6</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 8,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>8,18%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>3,59%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>10,77%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>11,04%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>10,98%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>14,84%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>9,69%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>8,09%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>13,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>5,87; 10,9</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>2,37; 5,62</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>8,48; 13,45</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>8,62; 13,84</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 13,48</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>12,48; 17,24</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>7,92; 11,67</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 9,71</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>11,49; 14,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,26%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,11%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>3,76%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>7,43%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>5,15%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>7,58%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>5,35%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 4,09</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,7; 2,7</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 4,34</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>6,43; 8,42</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>4,46; 5,84</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 8,3</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 5,94</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 4,13</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 6,21</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos reconstruyentes</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1723</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1805</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2536</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5862</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3071</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8207</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>758; 3414</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 11287</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>627; 6099</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>475; 3136</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15798</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3103; 10519</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1530; 5344</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16322</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4531; 14186</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1334</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1891</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3613</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12362</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14716</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5916</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14253</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>18328</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>454; 2855</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>164; 8556</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1221; 8712</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2963; 6784</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4786; 22599</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9093; 22926</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3883; 8603</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7362; 24940</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>12459; 28054</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5754</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5494</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6519</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7936</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14692</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8450</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>13690</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20186</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>881; 3477</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2277; 12922</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2296; 10893</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4645; 8950</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4385; 13978</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8473; 21871</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6526; 11192</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7782; 21671</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12337; 28531</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3833</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6116</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4589</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10644</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19465</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14497</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14477</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25581</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>19086</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2365; 5797</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1035; 14746</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2072; 9798</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>8144; 14310</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14158; 26131</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9711; 20719</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>11464; 17861</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10851; 37877</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13405; 25821</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4663</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12422</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10259</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>24856</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18181</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14921</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37278</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>22476</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2976; 7069</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7086; 21561</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1988; 8775</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7621; 13397</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>18714; 33624</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12943; 25458</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11662; 18903</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27815; 47716</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>16281; 30790</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>5992</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6417</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>5904</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12043</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>16367</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>16643</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18035</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22784</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22546</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4234; 8419</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2929; 12068</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3651; 9006</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9373; 15324</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4625; 32829</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>12561; 22398</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14900; 22598</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8499; 36049</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17404; 28551</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>11743</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2481</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>11776</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>22806</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>26956</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>22093</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>34548</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>29437</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>33869</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8902; 14883</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>630; 5846</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>8277; 15814</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>19027; 26518</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>20738; 35683</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>17290; 28456</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>30175; 40088</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>22543; 39010</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>27533; 41400</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>31219</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>36886</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>38016</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>68200</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>110478</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>106683</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>99419</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>147364</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>144699</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>26496; 36513</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>23619; 52267</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>29963; 48275</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>62266; 75441</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>78024; 131807</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>91289; 122456</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>90753; 108185</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>113864; 173377</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>128587; 165616</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_REC-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes</t>
+          <t>Consumo de medicamentos reconstruyentes (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes</t>
+          <t>Consumo de medicamentos reconstruyentes (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_REC-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,22 +648,22 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>2,16%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,43</t>
+          <t>1,13; 5,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 4,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,02</t>
+          <t>0,65; 3,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,57</t>
+          <t>0,0; 6,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,26</t>
+          <t>1,25; 3,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>0,0; 3,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,13</t>
+          <t>0,43; 2,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,07; 3,73</t>
+          <t>0,07; 3,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,86</t>
+          <t>3,56; 8,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,19</t>
+          <t>1,61; 7,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,53</t>
+          <t>2,21; 4,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,59</t>
+          <t>1,38; 4,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,67</t>
+          <t>0,95; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,16</t>
+          <t>0,72; 4,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 9,18</t>
+          <t>4,9; 9,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,33</t>
+          <t>1,32; 4,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,82</t>
+          <t>3,26; 5,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,42</t>
+          <t>1,3; 3,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,16</t>
+          <t>1,77; 4,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,35</t>
+          <t>0,13; 2,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,37</t>
+          <t>4,67; 8,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,46</t>
+          <t>3,37; 6,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,44</t>
+          <t>3,61; 5,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,67</t>
+          <t>1,17; 3,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,57</t>
+          <t>1,89; 4,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,36</t>
+          <t>1,98; 6,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,09</t>
+          <t>4,72; 8,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 10,54</t>
+          <t>5,92; 10,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,89</t>
+          <t>3,72; 5,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,25</t>
+          <t>4,4; 7,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,82</t>
+          <t>4,19; 8,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 5,8</t>
+          <t>1,46; 5,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,16; 13,34</t>
+          <t>7,94; 12,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 7,25</t>
+          <t>0,83; 7,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,16</t>
+          <t>6,66; 9,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,46</t>
+          <t>1,22; 5,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,24; 15,45</t>
+          <t>8,26; 13,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,86</t>
+          <t>0,6; 3,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,21; 19,8</t>
+          <t>14,3; 19,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 15,3</t>
+          <t>8,84; 15,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,1; 17,41</t>
+          <t>12,57; 16,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 10,14</t>
+          <t>5,77; 9,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,8; 5,24</t>
+          <t>3,31; 4,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,49</t>
+          <t>1,02; 2,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,23; 9,97</t>
+          <t>7,42; 9,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,91</t>
+          <t>3,48; 5,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,44</t>
+          <t>5,63; 6,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,63; 4,0</t>
+          <t>2,62; 4,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>758; 3414</t>
+          <t>870; 3965</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 11287</t>
+          <t>0; 11228</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>475; 3136</t>
+          <t>433; 2415</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0; 15798</t>
+          <t>0; 12306</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1530; 5344</t>
+          <t>1794; 5119</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0; 16322</t>
+          <t>0; 15033</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>786</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4581</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5916</t>
+          <t>4596</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>454; 2855</t>
+          <t>323; 1681</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>164; 8556</t>
+          <t>164; 9111</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2963; 6784</t>
+          <t>2423; 5786</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4786; 22599</t>
+          <t>5069; 22314</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3883; 8603</t>
+          <t>3158; 6692</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7362; 24940</t>
+          <t>7484; 26749</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6519</t>
+          <t>7514</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8450</t>
+          <t>9345</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>881; 3477</t>
+          <t>993; 3484</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2277; 12922</t>
+          <t>2225; 13450</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4645; 8950</t>
+          <t>5423; 10058</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4385; 13978</t>
+          <t>4268; 13775</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6526; 11192</t>
+          <t>7007; 12543</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7782; 21671</t>
+          <t>8215; 21846</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3833</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10644</t>
+          <t>9446</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14477</t>
+          <t>13449</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2365; 5797</t>
+          <t>2568; 6324</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1035; 14746</t>
+          <t>822; 13810</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8144; 14310</t>
+          <t>7120; 12461</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14158; 26131</t>
+          <t>13627; 26003</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11464; 17861</t>
+          <t>10739; 16932</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10851; 37877</t>
+          <t>12057; 38540</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10259</t>
+          <t>9407</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14921</t>
+          <t>13200</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2976; 7069</t>
+          <t>2451; 5615</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7086; 21561</t>
+          <t>6706; 20358</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7621; 13397</t>
+          <t>7165; 12423</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>18714; 33624</t>
+          <t>18863; 32911</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11662; 18903</t>
+          <t>10469; 16718</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>27815; 47716</t>
+          <t>28937; 48147</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5992</t>
+          <t>6315</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12043</t>
+          <t>11615</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>18035</t>
+          <t>17929</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4234; 8419</t>
+          <t>4375; 8700</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2929; 12068</t>
+          <t>3041; 11679</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9373; 15324</t>
+          <t>9187; 14435</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4625; 32829</t>
+          <t>3749; 33755</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14900; 22598</t>
+          <t>14675; 21351</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8499; 36049</t>
+          <t>8083; 36464</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>11743</t>
+          <t>9437</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>22806</t>
+          <t>22328</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>34548</t>
+          <t>31764</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>8902; 14883</t>
+          <t>7371; 12103</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>630; 5846</t>
+          <t>911; 6027</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>19027; 26518</t>
+          <t>18921; 26411</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>20738; 35683</t>
+          <t>20614; 35535</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>30175; 40088</t>
+          <t>27854; 36769</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>22543; 39010</t>
+          <t>22190; 38053</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>31219</t>
+          <t>28181</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>68200</t>
+          <t>65198</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>99419</t>
+          <t>93379</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>26496; 36513</t>
+          <t>23945; 33095</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>23619; 52267</t>
+          <t>21537; 50697</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>62266; 75441</t>
+          <t>59161; 71947</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>78024; 131807</t>
+          <t>77616; 131597</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>90753; 108185</t>
+          <t>85653; 101985</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>113864; 173377</t>
+          <t>113344; 173931</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_REC-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2,62%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,63%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>0,89%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>2,16%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,03%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,26</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 3,58</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,13; 5,16</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,75</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 3,58</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,58</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 6,17</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,65; 3,65</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,68</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 6,17</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,07</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 4,16</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>1,25; 3,58</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,57</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>1,33; 4,16</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,98%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,05%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,82%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>5,6%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,93%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,96%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>3,21%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,66%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,6; 7,08</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 4,78</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,43; 2,24</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 3,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 4,78</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>2,41; 7,54</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 10,84</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>3,56; 8,5</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,61; 7,1</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,3; 10,84</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>1,99; 5,65</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 7,13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>2,21; 4,68</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 4,92</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 7,13</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,76%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,85%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>6,79%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,46%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,91%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>2,05%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>4,35%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,16%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,06%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,62; 3,77</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 4,39</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,95; 3,35</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,72; 4,33</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 4,39</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,39; 4,19</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 8,8</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>4,9; 9,08</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,32; 4,27</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 8,8</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,24; 3,16</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 5,74</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>3,26; 5,84</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 3,45</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 5,74</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,76%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,19%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,81%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,2%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>4,52%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,75; 3,71</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 3,3</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,77; 4,37</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 2,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 3,3</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>3,42; 6,5</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 7,43</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4,67; 8,17</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,37; 6,42</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 7,43</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>2,47; 4,55</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 4,48</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>3,61; 5,69</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 3,73</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 4,48</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,38%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,83%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2,93%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,66%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,83%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>6,19%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,79%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,16%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,67%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,6%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,84; 5,5</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 3,74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1,89; 4,33</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 6,0</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 3,74</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>5,95; 10,3</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 10,02</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>4,72; 8,18</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>5,92; 10,32</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,09; 10,02</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>4,33; 7,12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 6,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>3,72; 5,94</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,4; 7,32</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 6,3</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>3,05%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>6,04%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,08%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,21%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8,82%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>10,03%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,62%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,82%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>5,04%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>8,14%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,45%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,05%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,44; 5,66</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 4,89</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>4,19; 8,33</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 5,61</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 4,89</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>4,74; 9,37</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6,66; 11,87</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>7,94; 12,47</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 7,46</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6,66; 11,87</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>3,62; 6,83</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4,67; 7,66</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>6,66; 9,69</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 5,52</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 7,66</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>10,58%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8,04%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10,43%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>16,88%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>11,56%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>10,43%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>14,34%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>7,65%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,71; 4,39</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 10,79</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>8,26; 13,56</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 3,98</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 10,79</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>8,69; 15,05</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8,16; 13,43</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>14,3; 19,96</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>8,84; 15,23</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>8,16; 13,43</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>5,69; 9,78</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 11,55</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>12,57; 16,6</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5,77; 9,9</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>7,68; 11,55</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>3,89%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>1,75%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>8,17%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>6,82%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>3,86%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>6,14%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>1,53; 2,87</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 3,3</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>3,31; 4,57</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 2,41</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 3,3</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>4,71; 6,38</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 7,83</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>7,42; 9,02</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>3,48; 5,9</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>5,84; 7,83</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>3,35; 4,41</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 5,47</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>5,63; 6,7</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 4,01</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>4,25; 5,47</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>14</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1805</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2345</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>2448</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5862</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>1080</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2536</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5862</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>4103</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8207</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>3095</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>8207</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0; 10289</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>627; 6099</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>870; 3965</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0; 11228</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>627; 6099</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0; 12264</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3103; 10519</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>433; 2415</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0; 12306</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3103; 10519</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0; 14151</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4531; 14186</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1794; 5119</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0; 15033</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4531; 14186</t>
         </is>
       </c>
     </row>
@@ -1823,29 +1823,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
           <t>23</t>
@@ -1853,17 +1853,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>29</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5824</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3613</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>786</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1891</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3613</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>12531</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14716</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3810</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>12362</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>14716</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>18354</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>18328</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>4596</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>14253</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>18328</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1582; 18545</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1221; 8712</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>323; 1681</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>164; 9111</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1221; 8712</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>6830; 21366</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9093; 22926</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2423; 5786</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>5069; 22314</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>9093; 22926</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>10832; 30819</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12459; 28054</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>3158; 6692</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>7484; 26749</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>12459; 28054</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>52</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5881</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5494</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1832</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5754</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>5494</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>9322</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14692</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7514</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>7936</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>14692</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>15203</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20186</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>9345</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>13690</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>20186</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2286; 13889</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2296; 10893</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>993; 3484</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2225; 13450</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2296; 10893</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5181; 15641</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8473; 21871</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>5423; 10058</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4268; 13775</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8473; 21871</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>9179; 23428</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12337; 28531</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>7007; 12543</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8215; 21846</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>12337; 28531</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>56</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>7416</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4589</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4003</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6116</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>4589</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>21381</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14497</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>9446</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>19465</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>14497</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>28797</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>19086</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>13449</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>25581</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>19086</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>3164; 15717</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2072; 9798</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>2568; 6324</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>822; 13810</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2072; 9798</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>15101; 28669</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9711; 20719</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>7120; 12461</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>13627; 26003</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>9711; 20719</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>21346; 39341</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13405; 25821</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>10739; 16932</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>12057; 38540</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>13405; 25821</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>12451</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4295</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>3794</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>12422</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>4295</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>28348</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>18181</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>9407</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>24856</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>18181</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>40799</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22476</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>13200</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>37278</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>22476</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>6760; 20247</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1988; 8775</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>2451; 5615</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>6706; 20358</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>1988; 8775</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>21430; 37101</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12943; 25458</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>7165; 12423</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>18863; 32911</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>12943; 25458</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>31526; 51890</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16281; 30790</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>10469; 16718</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>28937; 48147</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>16281; 30790</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>73</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>109</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>65</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>7047</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5904</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>6315</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>6417</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>5904</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>18222</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>16643</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>11615</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>16367</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>16643</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>25269</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22546</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>17929</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>22784</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>22546</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>3321; 13091</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3651; 9006</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>4375; 8700</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>3041; 11679</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>3651; 9006</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>12799; 25296</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12561; 22398</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>9187; 14435</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>3749; 33755</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>12561; 22398</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>18125; 34251</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17404; 28551</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>14675; 21351</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>8083; 36464</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>17404; 28551</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>200</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>96</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>3125</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>11776</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>9437</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>2481</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>11776</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>28965</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>22093</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>22328</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>26956</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>22093</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>32090</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>33869</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>31764</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>29437</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>33869</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>1166; 7255</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8277; 15814</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>7371; 12103</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>911; 6027</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>8277; 15814</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>22262; 38560</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>17290; 28456</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>18921; 26411</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>20614; 35535</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>17290; 28456</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>23983; 41207</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>27533; 41400</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>27854; 36769</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>22190; 38053</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>27533; 41400</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>169</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>391</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>560</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>302</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>43398</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>38016</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>28181</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>36886</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>38016</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>121216</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>106683</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>65198</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>110478</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>106683</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>164614</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>144699</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>93379</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>147364</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>144699</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>31520; 59127</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>29963; 48275</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>23945; 33095</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>21537; 50697</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>29963; 48275</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>103818; 140674</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>91289; 122456</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>59161; 71947</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>77616; 131597</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>91289; 122456</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>142913; 187885</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>128587; 165616</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>85653; 101985</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>113344; 173931</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>128587; 165616</t>
         </is>
       </c>
     </row>
